--- a/q4_cluster_centers.xlsx
+++ b/q4_cluster_centers.xlsx
@@ -1,37 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\数学建模\3rd_train\q1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864460B-C371-4414-9E00-E2D40FB5E7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>年龄：岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高：厘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重：千克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰围：厘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臀围：厘米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉搏：次/分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆固醇：mmol/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血糖：mmol/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度脂蛋白：mmol/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低密度脂蛋白：mmol/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘油三酯：mmol/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿酸：mmol/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩压：mmHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒张压：mmHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +122,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,312 +452,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>年龄</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>身高</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>体重</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>腰围</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>臀围</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>收缩压</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>舒张压</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>脉搏</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>胆固醇</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>血糖</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>高密度脂蛋白</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>低密度脂蛋白</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>甘油三酯</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>尿酸</t>
-        </is>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>60.46680216802167</v>
-      </c>
-      <c r="B2" t="n">
-        <v>158.2385501355014</v>
-      </c>
-      <c r="C2" t="n">
-        <v>57.60792682926829</v>
-      </c>
-      <c r="D2" t="n">
-        <v>78.83102981029809</v>
-      </c>
-      <c r="E2" t="n">
-        <v>93.24579945799458</v>
-      </c>
-      <c r="F2" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>60.466802168021673</v>
+      </c>
+      <c r="B2" s="2">
+        <v>158.23855013550141</v>
+      </c>
+      <c r="C2" s="2">
+        <v>57.607926829268287</v>
+      </c>
+      <c r="D2" s="2">
+        <v>78.831029810298091</v>
+      </c>
+      <c r="E2" s="2">
+        <v>93.245799457994579</v>
+      </c>
+      <c r="F2" s="2">
         <v>111.349593495935</v>
       </c>
-      <c r="G2" t="n">
-        <v>72.72628726287263</v>
-      </c>
-      <c r="H2" t="n">
-        <v>71.47899728997291</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.465135501355014</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.173990514905149</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="G2" s="2">
+        <v>72.726287262872631</v>
+      </c>
+      <c r="H2" s="2">
+        <v>71.478997289972909</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5.4651355013550136</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5.1739905149051486</v>
+      </c>
+      <c r="K2" s="2">
         <v>1.387737127371274</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="2">
         <v>3.408482384823849</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="2">
         <v>1.365968834688347</v>
       </c>
-      <c r="N2" t="n">
-        <v>259.6308943089431</v>
+      <c r="N2" s="2">
+        <v>259.63089430894308</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>52.32350718065004</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2">
         <v>168.145275888133</v>
       </c>
-      <c r="C3" t="n">
-        <v>75.55132275132274</v>
-      </c>
-      <c r="D3" t="n">
-        <v>91.41798941798942</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3" s="2">
+        <v>75.551322751322743</v>
+      </c>
+      <c r="D3" s="2">
+        <v>91.417989417989418</v>
+      </c>
+      <c r="E3" s="2">
         <v>100.4202569916856</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>120.0740740740741</v>
       </c>
-      <c r="G3" t="n">
-        <v>81.59712773998488</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3" s="2">
+        <v>81.597127739984884</v>
+      </c>
+      <c r="H3" s="2">
         <v>73.51549508692365</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2">
         <v>5.428019652305367</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.239463340891913</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3" s="2">
+        <v>5.2394633408919127</v>
+      </c>
+      <c r="K3" s="2">
         <v>1.061730914588058</v>
       </c>
-      <c r="L3" t="n">
-        <v>3.498526077097506</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.655585789871504</v>
-      </c>
-      <c r="N3" t="n">
-        <v>400.6974300831444</v>
+      <c r="L3" s="2">
+        <v>3.4985260770975062</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.6555857898715041</v>
+      </c>
+      <c r="N3" s="2">
+        <v>400.69743008314441</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>45.2573673870334</v>
-      </c>
-      <c r="B4" t="n">
-        <v>158.8446954813359</v>
-      </c>
-      <c r="C4" t="n">
-        <v>51.60275049115914</v>
-      </c>
-      <c r="D4" t="n">
-        <v>70.87578585461689</v>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>45.257367387033398</v>
+      </c>
+      <c r="B4" s="2">
+        <v>158.84469548133589</v>
+      </c>
+      <c r="C4" s="2">
+        <v>51.602750491159142</v>
+      </c>
+      <c r="D4" s="2">
+        <v>70.875785854616893</v>
+      </c>
+      <c r="E4" s="2">
         <v>89.2414047151277</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>101.3801571709234</v>
       </c>
-      <c r="G4" t="n">
-        <v>66.34675834970528</v>
-      </c>
-      <c r="H4" t="n">
-        <v>73.74656188605107</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.304248526522594</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.777028487229862</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.357534381139489</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="G4" s="2">
+        <v>66.346758349705283</v>
+      </c>
+      <c r="H4" s="2">
+        <v>73.746561886051069</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.3042485265225938</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4.7770284872298623</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.3575343811394891</v>
+      </c>
+      <c r="L4" s="2">
         <v>2.496905697445972</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="2">
         <v>0.9091944990176819</v>
       </c>
-      <c r="N4" t="n">
-        <v>239.1523084479371</v>
+      <c r="N4" s="2">
+        <v>239.15230844793709</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>46.63692480359147</v>
-      </c>
-      <c r="B5" t="n">
-        <v>165.7759259259259</v>
-      </c>
-      <c r="C5" t="n">
-        <v>62.75723905723906</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79.91829405162738</v>
-      </c>
-      <c r="E5" t="n">
-        <v>93.88114478114478</v>
-      </c>
-      <c r="F5" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>46.636924803591469</v>
+      </c>
+      <c r="B5" s="2">
+        <v>165.77592592592589</v>
+      </c>
+      <c r="C5" s="2">
+        <v>62.757239057239062</v>
+      </c>
+      <c r="D5" s="2">
+        <v>79.918294051627385</v>
+      </c>
+      <c r="E5" s="2">
+        <v>93.881144781144783</v>
+      </c>
+      <c r="F5" s="2">
         <v>112.0426487093154</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>73.84287317620651</v>
       </c>
-      <c r="H5" t="n">
-        <v>73.1952861952862</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.262053872053872</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.900319865319865</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.10351290684624</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.625471380471381</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.370516273849607</v>
-      </c>
-      <c r="N5" t="n">
-        <v>322.9336139169473</v>
+      <c r="H5" s="2">
+        <v>73.195286195286201</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.2620538720538717</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4.9003198653198652</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.1035129068462399</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.6254713804713812</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.3705162738496071</v>
+      </c>
+      <c r="N5" s="2">
+        <v>322.93361391694731</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>70.03746654772524</v>
-      </c>
-      <c r="B6" t="n">
-        <v>159.9250669045495</v>
-      </c>
-      <c r="C6" t="n">
-        <v>64.04656556645851</v>
-      </c>
-      <c r="D6" t="n">
-        <v>86.550044603033</v>
-      </c>
-      <c r="E6" t="n">
-        <v>96.69009812667261</v>
-      </c>
-      <c r="F6" t="n">
-        <v>138.7100802854594</v>
-      </c>
-      <c r="G6" t="n">
-        <v>87.32738626226582</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75.10258697591436</v>
-      </c>
-      <c r="I6" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>70.037466547725245</v>
+      </c>
+      <c r="B6" s="2">
+        <v>159.92506690454951</v>
+      </c>
+      <c r="C6" s="2">
+        <v>64.046565566458511</v>
+      </c>
+      <c r="D6" s="2">
+        <v>86.550044603033001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>96.690098126672609</v>
+      </c>
+      <c r="F6" s="2">
+        <v>138.71008028545941</v>
+      </c>
+      <c r="G6" s="2">
+        <v>87.327386262265819</v>
+      </c>
+      <c r="H6" s="2">
+        <v>75.102586975914363</v>
+      </c>
+      <c r="I6" s="2">
         <v>5.352390722569135</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="2">
         <v>5.767279214986619</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="2">
         <v>1.192390722569135</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.406574487065121</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" s="2">
+        <v>3.4065744870651211</v>
+      </c>
+      <c r="M6" s="2">
         <v>2.017502230151651</v>
       </c>
-      <c r="N6" t="n">
-        <v>311.17091882248</v>
+      <c r="N6" s="2">
+        <v>311.17091882248002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>